--- a/src/test/resources/Client.xlsx
+++ b/src/test/resources/Client.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19185" windowHeight="7500"/>
+    <workbookView windowWidth="28800" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="habitTaskData" sheetId="1" r:id="rId1"/>
@@ -1256,7 +1256,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1320,11 +1320,11 @@
       </c>
       <c r="E2" s="1" t="str">
         <f ca="1">TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>22/12/2024</v>
+        <v>28/12/2024</v>
       </c>
       <c r="F2" s="1" t="str">
         <f ca="1">TEXT(TODAY()+7,"dd/mm/yyyy")</f>
-        <v>29/12/2024</v>
+        <v>04/01/2025</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="I2" s="1" t="str">
         <f ca="1">TEXT(TODAY(),"MMM dd, yyyy")</f>
-        <v>Dec 22, 2024</v>
+        <v>Dec 28, 2024</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f ca="1">TEXT(TODAY()+7,"MMM dd, yyyy")</f>
-        <v>Dec 29, 2024</v>
+        <f ca="1">TEXT(TODAY()+7,"MMM d, yyyy")</f>
+        <v>Jan 4, 2025</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1356,11 +1356,11 @@
       </c>
       <c r="E3" s="1" t="str">
         <f ca="1">TEXT(TODAY()+5,"dd/mm/yyyy")</f>
-        <v>27/12/2024</v>
+        <v>02/01/2025</v>
       </c>
       <c r="F3" s="1" t="str">
         <f ca="1">TEXT(TODAY()+12,"dd/mm/yyyy")</f>
-        <v>03/01/2025</v>
+        <v>09/01/2025</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -1370,11 +1370,11 @@
       </c>
       <c r="I3" s="1" t="str">
         <f ca="1">TEXT(TODAY()+5,"MMM dd, yyyy")</f>
-        <v>Dec 27, 2024</v>
+        <v>Jan 02, 2025</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f ca="1">TEXT(TODAY()+12,"MMM dd, yyyy")</f>
-        <v>Jan 03, 2025</v>
+        <f ca="1">TEXT(TODAY()+12,"MMM d, yyyy")</f>
+        <v>Jan 9, 2025</v>
       </c>
     </row>
   </sheetData>
